--- a/UniversityDatabaseWithAdo/SessionResultsGroupNumberStudentNameExamCodeSessionNumberGrade.xlsx
+++ b/UniversityDatabaseWithAdo/SessionResultsGroupNumberStudentNameExamCodeSessionNumberGrade.xlsx
@@ -220,7 +220,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -237,7 +237,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/UniversityDatabaseWithAdo/SessionResultsGroupNumberStudentNameExamCodeSessionNumberGrade.xlsx
+++ b/UniversityDatabaseWithAdo/SessionResultsGroupNumberStudentNameExamCodeSessionNumberGrade.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Group Id</t>
   </si>
@@ -29,13 +29,22 @@
     <t>Mark</t>
   </si>
   <si>
-    <t>Zayats Nikita Sergeevich</t>
-  </si>
-  <si>
-    <t>Pishuck Alex Igoreevna</t>
-  </si>
-  <si>
-    <t>Tsmyg Dmitry Alexandrovich</t>
+    <t>Karp Alex DD</t>
+  </si>
+  <si>
+    <t>NIkita Valer Gnusov</t>
+  </si>
+  <si>
+    <t>MOyva JJu DD</t>
+  </si>
+  <si>
+    <t>Prerk Tuk Tuc</t>
+  </si>
+  <si>
+    <t>Munsd sdhf dfkj</t>
+  </si>
+  <si>
+    <t>Larisa JJJ Ddsf</t>
   </si>
 </sst>
 </file>
@@ -81,7 +90,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -118,24 +127,24 @@
         <v>1</v>
       </c>
       <c r="E2" s="0">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="0">
         <v>1</v>
       </c>
       <c r="E3" s="0">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -143,30 +152,30 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0">
         <v>1</v>
       </c>
       <c r="D4" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="0">
         <v>8</v>
@@ -174,13 +183,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="0">
         <v>3</v>
@@ -191,55 +200,22 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>2</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="0">
-        <v>2</v>
-      </c>
-      <c r="D8" s="0">
-        <v>4</v>
-      </c>
-      <c r="E8" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>2</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="0">
-        <v>2</v>
-      </c>
-      <c r="D9" s="0">
-        <v>5</v>
-      </c>
-      <c r="E9" s="0">
-        <v>8</v>
-      </c>
-    </row>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8"/>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/UniversityDatabaseWithAdo/SessionResultsGroupNumberStudentNameExamCodeSessionNumberGrade.xlsx
+++ b/UniversityDatabaseWithAdo/SessionResultsGroupNumberStudentNameExamCodeSessionNumberGrade.xlsx
@@ -90,7 +90,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -215,7 +215,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8"/>
   </sheetData>
   <headerFooter/>
 </worksheet>
